--- a/Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
+++ b/Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>sigma_VEC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>bulk_modulus</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -545,9 +540,6 @@
       <c r="M2" t="n">
         <v>1.882782738202394</v>
       </c>
-      <c r="N2" t="n">
-        <v>171388317468.4925</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -589,9 +581,6 @@
       <c r="M3" t="n">
         <v>1.882863745105841</v>
       </c>
-      <c r="N3" t="n">
-        <v>171118159891.1738</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -633,9 +622,6 @@
       <c r="M4" t="n">
         <v>1.88771008374703</v>
       </c>
-      <c r="N4" t="n">
-        <v>171052339763.9181</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -677,9 +663,6 @@
       <c r="M5" t="n">
         <v>1.888592288927109</v>
       </c>
-      <c r="N5" t="n">
-        <v>171041670755.6002</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -721,9 +704,6 @@
       <c r="M6" t="n">
         <v>1.906034934854781</v>
       </c>
-      <c r="N6" t="n">
-        <v>171294788285.3091</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -765,9 +745,6 @@
       <c r="M7" t="n">
         <v>1.794908847638016</v>
       </c>
-      <c r="N7" t="n">
-        <v>172915188335.3418</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -809,9 +786,6 @@
       <c r="M8" t="n">
         <v>1.81549624662442</v>
       </c>
-      <c r="N8" t="n">
-        <v>172424447006.5204</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -853,9 +827,6 @@
       <c r="M9" t="n">
         <v>1.841990243468286</v>
       </c>
-      <c r="N9" t="n">
-        <v>171957507202.8496</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -897,9 +868,6 @@
       <c r="M10" t="n">
         <v>1.858662341015401</v>
       </c>
-      <c r="N10" t="n">
-        <v>171851681363.5309</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -941,9 +909,6 @@
       <c r="M11" t="n">
         <v>1.876353876773989</v>
       </c>
-      <c r="N11" t="n">
-        <v>171696005300.1188</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -985,9 +950,6 @@
       <c r="M12" t="n">
         <v>1.913479908641325</v>
       </c>
-      <c r="N12" t="n">
-        <v>170925973256.3754</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1029,9 +991,6 @@
       <c r="M13" t="n">
         <v>1.953826742856776</v>
       </c>
-      <c r="N13" t="n">
-        <v>170680306223.5178</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1073,9 +1032,6 @@
       <c r="M14" t="n">
         <v>1.642333751820618</v>
       </c>
-      <c r="N14" t="n">
-        <v>174399797360.3777</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1117,9 +1073,6 @@
       <c r="M15" t="n">
         <v>1.698161567663727</v>
       </c>
-      <c r="N15" t="n">
-        <v>173789460057.4213</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1161,9 +1114,6 @@
       <c r="M16" t="n">
         <v>1.757842370440394</v>
       </c>
-      <c r="N16" t="n">
-        <v>173801695424.765</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1205,9 +1155,6 @@
       <c r="M17" t="n">
         <v>1.774013157089227</v>
       </c>
-      <c r="N17" t="n">
-        <v>172552355765.4548</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1249,9 +1196,6 @@
       <c r="M18" t="n">
         <v>1.796536213617284</v>
       </c>
-      <c r="N18" t="n">
-        <v>172252290262.3272</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1293,9 +1237,6 @@
       <c r="M19" t="n">
         <v>1.849247090506852</v>
       </c>
-      <c r="N19" t="n">
-        <v>171615274057.6472</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1337,9 +1278,6 @@
       <c r="M20" t="n">
         <v>1.889766506706896</v>
       </c>
-      <c r="N20" t="n">
-        <v>171009913184.5371</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1381,9 +1319,6 @@
       <c r="M21" t="n">
         <v>1.958545681888617</v>
       </c>
-      <c r="N21" t="n">
-        <v>169794045368.1833</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1425,9 +1360,6 @@
       <c r="M22" t="n">
         <v>2.03318915807749</v>
       </c>
-      <c r="N22" t="n">
-        <v>168207971205.46</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1469,9 +1401,6 @@
       <c r="M23" t="n">
         <v>1.535777422704193</v>
       </c>
-      <c r="N23" t="n">
-        <v>174804349471.7881</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1513,9 +1442,6 @@
       <c r="M24" t="n">
         <v>1.583615007422299</v>
       </c>
-      <c r="N24" t="n">
-        <v>174091385017.3561</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1557,9 +1483,6 @@
       <c r="M25" t="n">
         <v>1.636501504486467</v>
       </c>
-      <c r="N25" t="n">
-        <v>173493964804.269</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1601,9 +1524,6 @@
       <c r="M26" t="n">
         <v>1.675082869941759</v>
       </c>
-      <c r="N26" t="n">
-        <v>172989933759.0592</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1645,9 +1565,6 @@
       <c r="M27" t="n">
         <v>1.715493650301267</v>
       </c>
-      <c r="N27" t="n">
-        <v>172440690506.889</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1689,9 +1606,6 @@
       <c r="M28" t="n">
         <v>1.788739041612613</v>
       </c>
-      <c r="N28" t="n">
-        <v>171638774728.3116</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1733,9 +1647,6 @@
       <c r="M29" t="n">
         <v>1.850493355719852</v>
       </c>
-      <c r="N29" t="n">
-        <v>170675463872.6212</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1777,9 +1688,6 @@
       <c r="M30" t="n">
         <v>1.941272622660873</v>
       </c>
-      <c r="N30" t="n">
-        <v>169511904638.1914</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1821,9 +1729,6 @@
       <c r="M31" t="n">
         <v>2.045982747978779</v>
       </c>
-      <c r="N31" t="n">
-        <v>166882847979.4066</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1865,9 +1770,6 @@
       <c r="M32" t="n">
         <v>1.433340635221596</v>
       </c>
-      <c r="N32" t="n">
-        <v>174809504861.4629</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1909,9 +1811,6 @@
       <c r="M33" t="n">
         <v>1.49184845250026</v>
       </c>
-      <c r="N33" t="n">
-        <v>174173658695.8939</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1953,9 +1852,6 @@
       <c r="M34" t="n">
         <v>1.537891595222003</v>
       </c>
-      <c r="N34" t="n">
-        <v>173624059338.4765</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1997,9 +1893,6 @@
       <c r="M35" t="n">
         <v>1.578391418888722</v>
       </c>
-      <c r="N35" t="n">
-        <v>172998223101.7466</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2041,9 +1934,6 @@
       <c r="M36" t="n">
         <v>1.646076820663437</v>
       </c>
-      <c r="N36" t="n">
-        <v>172294719597.2932</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2085,9 +1975,6 @@
       <c r="M37" t="n">
         <v>1.706887303940507</v>
       </c>
-      <c r="N37" t="n">
-        <v>171698289789.0482</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2129,9 +2016,6 @@
       <c r="M38" t="n">
         <v>1.793112124583807</v>
       </c>
-      <c r="N38" t="n">
-        <v>170557202652.5442</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2173,9 +2057,6 @@
       <c r="M39" t="n">
         <v>1.891498966762572</v>
       </c>
-      <c r="N39" t="n">
-        <v>168836063762.4063</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2217,9 +2098,6 @@
       <c r="M40" t="n">
         <v>2.030469900039257</v>
       </c>
-      <c r="N40" t="n">
-        <v>166259238270.7961</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2261,9 +2139,6 @@
       <c r="M41" t="n">
         <v>1.3515369856457</v>
       </c>
-      <c r="N41" t="n">
-        <v>174590343967.9704</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2305,9 +2180,6 @@
       <c r="M42" t="n">
         <v>1.389207621495003</v>
       </c>
-      <c r="N42" t="n">
-        <v>174057574263.8783</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2349,9 +2221,6 @@
       <c r="M43" t="n">
         <v>1.422324757136511</v>
       </c>
-      <c r="N43" t="n">
-        <v>173545857530.4607</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2393,9 +2262,6 @@
       <c r="M44" t="n">
         <v>1.480117606964709</v>
       </c>
-      <c r="N44" t="n">
-        <v>173111861225.6873</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2437,9 +2303,6 @@
       <c r="M45" t="n">
         <v>1.523919880415215</v>
       </c>
-      <c r="N45" t="n">
-        <v>172469011267.0223</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2481,9 +2344,6 @@
       <c r="M46" t="n">
         <v>1.611128225553049</v>
       </c>
-      <c r="N46" t="n">
-        <v>171602630889.0799</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2525,9 +2385,6 @@
       <c r="M47" t="n">
         <v>1.709770449615942</v>
       </c>
-      <c r="N47" t="n">
-        <v>170297208840.7375</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2569,9 +2426,6 @@
       <c r="M48" t="n">
         <v>1.849931607495227</v>
       </c>
-      <c r="N48" t="n">
-        <v>168647902568.1843</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2613,9 +2467,6 @@
       <c r="M49" t="n">
         <v>1.957039338609674</v>
       </c>
-      <c r="N49" t="n">
-        <v>166404337745.1703</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2657,9 +2508,6 @@
       <c r="M50" t="n">
         <v>1.275115202946909</v>
       </c>
-      <c r="N50" t="n">
-        <v>174120761926.6248</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2701,9 +2549,6 @@
       <c r="M51" t="n">
         <v>1.299463027721608</v>
       </c>
-      <c r="N51" t="n">
-        <v>173615146294.1881</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2745,9 +2590,6 @@
       <c r="M52" t="n">
         <v>1.321868675660055</v>
       </c>
-      <c r="N52" t="n">
-        <v>173151415134.2687</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2789,9 +2631,6 @@
       <c r="M53" t="n">
         <v>1.373272575262313</v>
       </c>
-      <c r="N53" t="n">
-        <v>172745343023.9356</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2833,9 +2672,6 @@
       <c r="M54" t="n">
         <v>1.439120569864712</v>
       </c>
-      <c r="N54" t="n">
-        <v>172038922861.0346</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2877,9 +2713,6 @@
       <c r="M55" t="n">
         <v>1.521481844261621</v>
       </c>
-      <c r="N55" t="n">
-        <v>171270778080.2155</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2921,9 +2754,6 @@
       <c r="M56" t="n">
         <v>1.621859413550103</v>
       </c>
-      <c r="N56" t="n">
-        <v>169984312338.6606</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2965,9 +2795,6 @@
       <c r="M57" t="n">
         <v>1.727016787533407</v>
       </c>
-      <c r="N57" t="n">
-        <v>168806018309.6158</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3009,9 +2836,6 @@
       <c r="M58" t="n">
         <v>1.911541131955564</v>
       </c>
-      <c r="N58" t="n">
-        <v>166026646966.8201</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3053,9 +2877,6 @@
       <c r="M59" t="n">
         <v>1.203316242282515</v>
       </c>
-      <c r="N59" t="n">
-        <v>173174488792.6931</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3097,9 +2918,6 @@
       <c r="M60" t="n">
         <v>1.229763406140412</v>
       </c>
-      <c r="N60" t="n">
-        <v>172845305584.4266</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3141,9 +2959,6 @@
       <c r="M61" t="n">
         <v>1.262040669588086</v>
       </c>
-      <c r="N61" t="n">
-        <v>172423519326.7019</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3185,9 +3000,6 @@
       <c r="M62" t="n">
         <v>1.326537735811674</v>
       </c>
-      <c r="N62" t="n">
-        <v>171888705531.6967</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3229,9 +3041,6 @@
       <c r="M63" t="n">
         <v>1.407001033805207</v>
       </c>
-      <c r="N63" t="n">
-        <v>171321876897.0823</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3273,9 +3082,6 @@
       <c r="M64" t="n">
         <v>1.525445472123222</v>
       </c>
-      <c r="N64" t="n">
-        <v>170050535155.6914</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3317,9 +3123,6 @@
       <c r="M65" t="n">
         <v>1.667377773524082</v>
       </c>
-      <c r="N65" t="n">
-        <v>168571379775.2496</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3361,9 +3164,6 @@
       <c r="M66" t="n">
         <v>1.124538934076214</v>
       </c>
-      <c r="N66" t="n">
-        <v>172250271911.213</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3405,9 +3205,6 @@
       <c r="M67" t="n">
         <v>1.149923918218328</v>
       </c>
-      <c r="N67" t="n">
-        <v>171926986582.8188</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3449,9 +3246,6 @@
       <c r="M68" t="n">
         <v>1.229650020650664</v>
       </c>
-      <c r="N68" t="n">
-        <v>171401970732.4077</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3493,9 +3287,6 @@
       <c r="M69" t="n">
         <v>1.293647358636753</v>
       </c>
-      <c r="N69" t="n">
-        <v>170980214720.1119</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3536,9 +3327,6 @@
       </c>
       <c r="M70" t="n">
         <v>1.41087388275249</v>
-      </c>
-      <c r="N70" t="n">
-        <v>170242903581.7379</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
+++ b/Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
@@ -857,7 +857,7 @@
         <v>-7.013371196182618</v>
       </c>
       <c r="J10" t="n">
-        <v>3.63603906421679</v>
+        <v>3.636039064216789</v>
       </c>
       <c r="K10" t="n">
         <v>0.1358791131797596</v>

--- a/Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
+++ b/Dataset_Cleaned/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_processed.xlsx
@@ -857,7 +857,7 @@
         <v>-7.013371196182618</v>
       </c>
       <c r="J10" t="n">
-        <v>3.636039064216789</v>
+        <v>3.63603906421679</v>
       </c>
       <c r="K10" t="n">
         <v>0.1358791131797596</v>
